--- a/Implementation/Evidence/Results.xlsx
+++ b/Implementation/Evidence/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\Documents\MIA\Periodos\3_1-Semestral-Ago-Ene\ComputacionEvolutiva2\SAEA\Implementation\Evidence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F87912-2EC7-4D7D-B452-80942A8A9271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582247AF-F075-4D1D-8BA2-93678F08C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Individual</t>
   </si>
@@ -185,6 +185,27 @@
   </si>
   <si>
     <t>Time (mean)</t>
+  </si>
+  <si>
+    <t>KADE - 5%</t>
+  </si>
+  <si>
+    <t>KADE -10%</t>
+  </si>
+  <si>
+    <t>KADE - 10 - 10%</t>
+  </si>
+  <si>
+    <t>KADE - 10 - 5%</t>
+  </si>
+  <si>
+    <t>KADE - 10 - 2%</t>
+  </si>
+  <si>
+    <t>Seconds</t>
+  </si>
+  <si>
+    <t>Minutes</t>
   </si>
 </sst>
 </file>
@@ -219,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,12 +261,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -257,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1182,11 +1197,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1356,43 +1402,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="45" fontId="2" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="45" fontId="2" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1483,6 +1514,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1768,7 +1838,7 @@
   <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B3" sqref="B3:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1789,48 +1859,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="72" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
     </row>
-    <row r="4" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="72" t="s">
+    <row r="4" spans="2:12" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="24" t="s">
         <v>31</v>
       </c>
@@ -1857,11 +1927,11 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="24" t="s">
         <v>30</v>
       </c>
@@ -1888,13 +1958,13 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="82"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="35" t="s">
         <v>32</v>
       </c>
@@ -1921,11 +1991,11 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="76"/>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="84"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="36" t="s">
         <v>32</v>
       </c>
@@ -1952,11 +2022,11 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="76"/>
-      <c r="C8" s="83" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="84"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="36" t="s">
         <v>32</v>
       </c>
@@ -1983,11 +2053,11 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="76"/>
-      <c r="C9" s="85" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="86"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="37" t="s">
         <v>32</v>
       </c>
@@ -2014,13 +2084,13 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="78"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="35">
         <v>8.9359999999999999</v>
       </c>
@@ -2047,8 +2117,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="76"/>
-      <c r="C11" s="71" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="26" t="s">
@@ -2080,8 +2150,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="76"/>
-      <c r="C12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="27" t="s">
         <v>15</v>
       </c>
@@ -2111,8 +2181,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="76"/>
-      <c r="C13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="28" t="s">
         <v>16</v>
       </c>
@@ -2142,8 +2212,8 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="76"/>
-      <c r="C14" s="79" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="74" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="29" t="s">
@@ -2171,12 +2241,12 @@
         <v>423.707323805405</v>
       </c>
       <c r="L14" s="34">
-        <v>554.79892201554401</v>
+        <v>754.79892201554401</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="76"/>
-      <c r="C15" s="80"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="30" t="s">
         <v>5</v>
       </c>
@@ -2210,7 +2280,7 @@
       </c>
       <c r="L15" s="13">
         <f t="shared" ref="L15" si="2">L14/(60*60*24)</f>
-        <v>6.4212838196243517E-3</v>
+        <v>8.7360986344391673E-3</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -2240,10 +2310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BC8416-8A72-4F62-8A8B-82029927D0E6}">
-  <dimension ref="B1:G25"/>
+  <dimension ref="B1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2251,31 +2321,90 @@
     <col min="1" max="1" width="11.5546875" style="54"/>
     <col min="2" max="2" width="17.77734375" style="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.21875" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="54"/>
+    <col min="4" max="4" width="10.5546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" style="54" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="54"/>
+    <col min="13" max="13" width="13.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.5546875" style="54" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.21875" style="54" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.44140625" style="54" customWidth="1"/>
+    <col min="20" max="20" width="3.77734375" style="54" customWidth="1"/>
+    <col min="21" max="22" width="13.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5546875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="54" t="s">
         <v>2</v>
       </c>
+      <c r="K1" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="54" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="49"/>
       <c r="C2" s="49" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="G2" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="99"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="92" t="s">
         <v>27</v>
       </c>
+      <c r="R2" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="90"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="56" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="51" t="s">
         <v>8</v>
       </c>
@@ -2288,8 +2417,43 @@
       <c r="E3" s="3">
         <v>50</v>
       </c>
+      <c r="F3" s="3">
+        <v>50</v>
+      </c>
+      <c r="G3" s="3">
+        <v>50</v>
+      </c>
+      <c r="H3" s="3">
+        <v>50</v>
+      </c>
+      <c r="I3" s="3">
+        <v>50</v>
+      </c>
+      <c r="K3" s="100"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="3"/>
+      <c r="W3" s="60">
+        <v>3.0198593591621499E-11</v>
+      </c>
+      <c r="X3" s="60">
+        <v>3.0198593591621499E-11</v>
+      </c>
     </row>
-    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52" t="s">
         <v>9</v>
       </c>
@@ -2297,13 +2461,56 @@
         <v>200</v>
       </c>
       <c r="D4" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E4" s="6">
         <v>300</v>
       </c>
+      <c r="F4" s="6">
+        <v>100</v>
+      </c>
+      <c r="G4" s="6">
+        <v>200</v>
+      </c>
+      <c r="H4" s="6">
+        <v>300</v>
+      </c>
+      <c r="I4" s="6">
+        <v>300</v>
+      </c>
+      <c r="K4" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="77"/>
+      <c r="M4" s="31">
+        <v>9.31174970405179</v>
+      </c>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="101">
+        <v>9.1698017514195893</v>
+      </c>
+      <c r="Q4" s="103">
+        <v>9.2178677516384493</v>
+      </c>
+      <c r="R4" s="84">
+        <v>6.05129849078181E-13</v>
+      </c>
+      <c r="S4" s="87">
+        <v>1</v>
+      </c>
+      <c r="U4" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="59">
+        <v>3.0198593591621499E-11</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="X4" s="63">
+        <v>9.62628310361517E-2</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>35</v>
       </c>
@@ -2316,8 +2523,47 @@
       <c r="E5" s="6">
         <v>0.8</v>
       </c>
+      <c r="F5" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="79"/>
+      <c r="M5" s="61">
+        <v>9.3080582916701804</v>
+      </c>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="102">
+        <v>8.9990210271805395</v>
+      </c>
+      <c r="Q5" s="104">
+        <v>9.0425023425687492</v>
+      </c>
+      <c r="R5" s="85"/>
+      <c r="S5" s="88"/>
+      <c r="U5" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="59">
+        <v>3.0198593591621499E-11</v>
+      </c>
+      <c r="W5" s="63">
+        <v>9.62628310361517E-2</v>
+      </c>
+      <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="52" t="s">
         <v>36</v>
       </c>
@@ -2330,8 +2576,37 @@
       <c r="E6" s="6">
         <v>0.5</v>
       </c>
+      <c r="F6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="79"/>
+      <c r="M6" s="61">
+        <v>9.3117468428613694</v>
+      </c>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="102">
+        <v>9.0272648856729099</v>
+      </c>
+      <c r="Q6" s="104">
+        <v>9.0715514007965794</v>
+      </c>
+      <c r="R6" s="85"/>
+      <c r="S6" s="88"/>
     </row>
-    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
         <v>10</v>
       </c>
@@ -2342,10 +2617,39 @@
         <v>1</v>
       </c>
       <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
         <v>5</v>
       </c>
+      <c r="H7" s="6">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>5</v>
+      </c>
+      <c r="K7" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="79"/>
+      <c r="M7" s="61">
+        <v>9.2789990217050899</v>
+      </c>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="102">
+        <v>8.6652397314345002</v>
+      </c>
+      <c r="Q7" s="104">
+        <v>8.6441017518141603</v>
+      </c>
+      <c r="R7" s="85"/>
+      <c r="S7" s="88"/>
     </row>
-    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="53" t="s">
         <v>11</v>
       </c>
@@ -2353,227 +2657,108 @@
         <v>32</v>
       </c>
       <c r="D8" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="9">
         <v>0.02</v>
       </c>
-      <c r="E8" s="9">
+      <c r="G8" s="9">
         <v>0.1</v>
       </c>
+      <c r="H8" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="K8" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="79"/>
+      <c r="M8" s="61">
+        <v>9.5085676971846892E-3</v>
+      </c>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="102">
+        <v>0.13043319769574499</v>
+      </c>
+      <c r="Q8" s="104">
+        <v>0.145726252423728</v>
+      </c>
+      <c r="R8" s="85"/>
+      <c r="S8" s="88"/>
     </row>
-    <row r="9" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="54" t="s">
-        <v>37</v>
-      </c>
+    <row r="9" spans="2:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K9" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="105">
+        <v>1177.3444499095201</v>
+      </c>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62">
+        <v>245.14719430605501</v>
+      </c>
+      <c r="Q9" s="104">
+        <v>764.86389537652303</v>
+      </c>
+      <c r="R9" s="85"/>
+      <c r="S9" s="88"/>
     </row>
-    <row r="11" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="95"/>
-      <c r="C11" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="95"/>
-    </row>
-    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="96"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="31">
-        <v>9.31174970405179</v>
-      </c>
-      <c r="D13" s="31">
-        <v>9.1698017514195893</v>
-      </c>
-      <c r="E13" s="64">
-        <v>9.2178677516384493</v>
-      </c>
-      <c r="F13" s="89">
-        <v>6.05129849078181E-13</v>
-      </c>
-      <c r="G13" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="65">
-        <v>9.3080582916701804</v>
-      </c>
-      <c r="D14" s="65">
-        <v>8.9990210271805395</v>
-      </c>
-      <c r="E14" s="66">
-        <v>9.0425023425687492</v>
-      </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="93"/>
-    </row>
-    <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="65">
-        <v>9.3117468428613694</v>
-      </c>
-      <c r="D15" s="65">
-        <v>9.0272648856729099</v>
-      </c>
-      <c r="E15" s="66">
-        <v>9.0715514007965794</v>
-      </c>
-      <c r="F15" s="90"/>
-      <c r="G15" s="93"/>
-    </row>
-    <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="65">
-        <v>9.2789990217050899</v>
-      </c>
-      <c r="D16" s="65">
-        <v>8.6652397314345002</v>
-      </c>
-      <c r="E16" s="66">
-        <v>8.6441017518141603</v>
-      </c>
-      <c r="F16" s="90"/>
-      <c r="G16" s="93"/>
-    </row>
-    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="65">
-        <v>9.5085676971846892E-3</v>
-      </c>
-      <c r="D17" s="65">
-        <v>0.13043319769574499</v>
-      </c>
-      <c r="E17" s="66">
-        <v>0.145726252423728</v>
-      </c>
-      <c r="F17" s="90"/>
-      <c r="G17" s="93"/>
-    </row>
-    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="67">
-        <v>1177.3444499095201</v>
-      </c>
-      <c r="D18" s="68">
-        <v>245.14719430605501</v>
-      </c>
-      <c r="E18" s="66">
-        <v>764.86389537652303</v>
-      </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="93"/>
-    </row>
-    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="88"/>
-      <c r="C19" s="60">
-        <f>C18/(60*60*24)</f>
+    <row r="10" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="83"/>
+      <c r="L10" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="106">
+        <f>M9/(60*60*24)</f>
         <v>1.362667187395278E-2</v>
       </c>
-      <c r="D19" s="60">
-        <f t="shared" ref="D19:E19" si="0">D18/(60*60*24)</f>
+      <c r="N10" s="58">
+        <f t="shared" ref="N10:Q10" si="0">N9/(60*60*24)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="58">
+        <f t="shared" ref="O10:P10" si="1">O9/(60*60*24)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="58">
+        <f t="shared" si="1"/>
         <v>2.8373517859497108E-3</v>
       </c>
-      <c r="E19" s="61">
+      <c r="Q10" s="107">
         <f t="shared" si="0"/>
         <v>8.8525913816727211E-3</v>
       </c>
-      <c r="F19" s="91"/>
-      <c r="G19" s="94"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="89"/>
     </row>
-    <row r="20" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="63">
-        <v>3.0198593591621499E-11</v>
-      </c>
-      <c r="E23" s="63">
-        <v>3.0198593591621499E-11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="62">
-        <v>3.0198593591621499E-11</v>
-      </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="69">
-        <v>9.62628310361517E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="62">
-        <v>3.0198593591621499E-11</v>
-      </c>
-      <c r="D25" s="69">
-        <v>9.62628310361517E-2</v>
-      </c>
-      <c r="E25" s="58"/>
-    </row>
+    <row r="11" spans="2:24" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="F13:F19"/>
-    <mergeCell ref="G13:G19"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:G11"/>
+  <mergeCells count="15">
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="R4:R10"/>
+    <mergeCell ref="S4:S10"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
